--- a/extracted_data 2 copy.xlsx
+++ b/extracted_data 2 copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_5bc\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanme\OneDrive - Singapore Polytechnic\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81ECEB2E-FBFD-3D46-9DB6-A79703A80F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D173CFFC-F505-4F8C-98F9-865E7428AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{752E9C9D-D2A7-4F5F-BF71-D91B4FD58E39}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{752E9C9D-D2A7-4F5F-BF71-D91B4FD58E39}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -917,14 +917,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC4DBE0-AA7B-459D-93D4-CEE29244A66B}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30000</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>40000</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50000</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60000</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>70000</v>
       </c>
@@ -1276,7 +1278,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>80000</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>90000</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>100000</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>110000</v>
       </c>
@@ -1454,5 +1456,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>